--- a/ExcelConfig/技能配置表.xlsx
+++ b/ExcelConfig/技能配置表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -177,6 +177,13 @@
   </si>
   <si>
     <t>技能cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
+    <t>普通攻击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -610,13 +617,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -768,6 +775,47 @@
         <v>31</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>100</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">

--- a/ExcelConfig/技能配置表.xlsx
+++ b/ExcelConfig/技能配置表.xlsx
@@ -1,21 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="210" yWindow="0" windowWidth="5130" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="SkillConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1-伤害
+2-治疗</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1-友方
+2-敌方</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1-直接治疗
+2-hot
+3-dot
+4-削弱伤害
+5-击晕</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1-友方
+2-敌方</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="74">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -105,11 +218,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>直接治疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>附加效果目标</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>击晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>主要效果数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接治疗数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>削弱数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>削弱效果持续时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击晕效果时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -169,6 +322,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>hot生效数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot持续时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot生效数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot持续时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>SkillCd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -180,10 +349,97 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>普通攻击</t>
-  </si>
-  <si>
-    <t>普通攻击</t>
+    <t>hot生效间隔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot生效间隔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>削弱伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵吉菩萨</t>
+  </si>
+  <si>
+    <t>九尾狐</t>
+  </si>
+  <si>
+    <t>混世小妖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如意真仙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青狮道人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文殊菩萨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄袍怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菩提老祖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红孩儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二郎神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪咤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谛听</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成3点伤害，降低目标1点伤害，持续2秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成17点伤害，降低目标4点伤害，持续2秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成87点伤害，降低目标20点伤害，持续2秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成444点伤害，降低目标90点伤害，持续2秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成2080点伤害，降低目标300点伤害，持续2秒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +447,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,13 +503,46 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -268,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -276,6 +565,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -294,7 +587,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -336,7 +629,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,7 +664,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,16 +879,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -616,34 +909,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="40.75" style="4" customWidth="1"/>
     <col min="5" max="6" width="15" style="4" customWidth="1"/>
     <col min="7" max="7" width="17" style="4" customWidth="1"/>
-    <col min="8" max="9" width="20.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -660,22 +953,22 @@
         <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>17</v>
@@ -687,7 +980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -704,7 +997,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>5</v>
@@ -731,7 +1024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -748,7 +1041,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>20</v>
@@ -757,73 +1050,2712 @@
         <v>21</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>4</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>4</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>87</v>
+      </c>
+      <c r="J6" s="4">
+        <v>4</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4">
+        <v>20</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>444</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>90</v>
+      </c>
+      <c r="M7" s="4">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="Q7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2080</v>
+      </c>
+      <c r="J8" s="4">
+        <v>4</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>300</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>8</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>41</v>
+      </c>
+      <c r="J10" s="4">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="S10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>198</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>924</v>
+      </c>
+      <c r="J12" s="4">
+        <v>5</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3561</v>
+      </c>
+      <c r="J13" s="4">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>3</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2</v>
+      </c>
+      <c r="L14" s="4">
+        <v>2</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>16</v>
+      </c>
+      <c r="J15" s="4">
+        <v>3</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2</v>
+      </c>
+      <c r="L15" s="4">
+        <v>5</v>
+      </c>
+      <c r="M15" s="4">
+        <v>2</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>78</v>
+      </c>
+      <c r="J16" s="4">
+        <v>3</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2</v>
+      </c>
+      <c r="L16" s="4">
+        <v>20</v>
+      </c>
+      <c r="M16" s="4">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>366</v>
+      </c>
+      <c r="J17" s="4">
+        <v>3</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4">
+        <v>100</v>
+      </c>
+      <c r="M17" s="4">
+        <v>2</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2003</v>
+      </c>
+      <c r="J18" s="4">
+        <v>3</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2</v>
+      </c>
+      <c r="L18" s="4">
+        <v>300</v>
+      </c>
+      <c r="M18" s="4">
+        <v>2</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="3">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <f>IF(G19=1,2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" ref="H20:H83" si="0">IF(G20=1,2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="3">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="3">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="3">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="4">
+        <v>4</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I24" s="4">
+        <v>9</v>
+      </c>
+      <c r="J24" s="4">
+        <v>3</v>
+      </c>
+      <c r="K24" s="4">
+        <v>2</v>
+      </c>
+      <c r="L24" s="4">
+        <v>2</v>
+      </c>
+      <c r="M24" s="4">
+        <v>3</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="3">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="4">
+        <v>4</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I25" s="4">
+        <v>61</v>
+      </c>
+      <c r="J25" s="4">
+        <v>3</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2</v>
+      </c>
+      <c r="L25" s="4">
+        <v>5</v>
+      </c>
+      <c r="M25" s="4">
+        <v>3</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I26" s="4">
+        <v>263</v>
+      </c>
+      <c r="J26" s="4">
+        <v>3</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4">
+        <v>25</v>
+      </c>
+      <c r="M26" s="4">
+        <v>3</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3">
+        <v>24</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1128</v>
+      </c>
+      <c r="J27" s="4">
+        <v>3</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2</v>
+      </c>
+      <c r="L27" s="4">
+        <v>150</v>
+      </c>
+      <c r="M27" s="4">
+        <v>3</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="3">
+        <v>25</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>5899</v>
+      </c>
+      <c r="J28" s="4">
+        <v>3</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2</v>
+      </c>
+      <c r="L28" s="4">
+        <v>400</v>
+      </c>
+      <c r="M28" s="4">
+        <v>3</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="3">
+        <v>26</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="4">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="3">
+        <v>27</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="3">
+        <v>28</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="3">
+        <v>29</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="3">
         <v>30</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="C33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="4">
+        <v>4</v>
+      </c>
+      <c r="G33" s="4">
+        <v>2</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
+        <v>8105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C34" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I34" s="4">
+        <v>8</v>
+      </c>
+      <c r="J34" s="4">
+        <v>5</v>
+      </c>
+      <c r="K34" s="4">
+        <v>2</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="3">
+        <v>32</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I35" s="4">
+        <v>39</v>
+      </c>
+      <c r="J35" s="4">
+        <v>5</v>
+      </c>
+      <c r="K35" s="4">
+        <v>2</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="3">
+        <v>33</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I36" s="4">
+        <v>175</v>
+      </c>
+      <c r="J36" s="4">
+        <v>5</v>
+      </c>
+      <c r="K36" s="4">
+        <v>2</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="3">
+        <v>34</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I37" s="4">
+        <v>785</v>
+      </c>
+      <c r="J37" s="4">
+        <v>5</v>
+      </c>
+      <c r="K37" s="4">
+        <v>2</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="3">
+        <v>35</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I38" s="4">
+        <v>3457</v>
+      </c>
+      <c r="J38" s="4">
+        <v>5</v>
+      </c>
+      <c r="K38" s="4">
+        <v>2</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="3">
+        <v>36</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="3">
         <v>37</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="C40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I40" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="3">
+        <v>38</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I41" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="3">
+        <v>39</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I42" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="3">
+        <v>40</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="3">
+        <v>41</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I44" s="4">
+        <v>3</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1</v>
+      </c>
+      <c r="L44" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="3">
+        <v>42</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I45" s="4">
+        <v>15</v>
+      </c>
+      <c r="J45" s="4">
+        <v>1</v>
+      </c>
+      <c r="K45" s="4">
+        <v>1</v>
+      </c>
+      <c r="L45" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="3">
+        <v>43</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I46" s="4">
+        <v>70</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1</v>
+      </c>
+      <c r="L46" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I47" s="4">
+        <v>348</v>
+      </c>
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1</v>
+      </c>
+      <c r="L47" s="4">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1633</v>
+      </c>
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
+      </c>
+      <c r="L48" s="4">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="3">
+        <v>46</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I49" s="4">
+        <v>11</v>
+      </c>
+      <c r="J49" s="4">
+        <v>4</v>
+      </c>
+      <c r="K49" s="4">
+        <v>2</v>
+      </c>
+      <c r="L49" s="4">
+        <v>2</v>
+      </c>
+      <c r="M49" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="3">
+        <v>47</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I50" s="4">
+        <v>51</v>
+      </c>
+      <c r="J50" s="4">
+        <v>4</v>
+      </c>
+      <c r="K50" s="4">
+        <v>2</v>
+      </c>
+      <c r="L50" s="4">
+        <v>10</v>
+      </c>
+      <c r="M50" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="3">
+        <v>48</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I51" s="4">
+        <v>255</v>
+      </c>
+      <c r="J51" s="4">
+        <v>4</v>
+      </c>
+      <c r="K51" s="4">
+        <v>2</v>
+      </c>
+      <c r="L51" s="4">
+        <v>50</v>
+      </c>
+      <c r="M51" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="3">
+        <v>49</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1021</v>
+      </c>
+      <c r="J52" s="4">
+        <v>4</v>
+      </c>
+      <c r="K52" s="4">
+        <v>2</v>
+      </c>
+      <c r="L52" s="4">
+        <v>300</v>
+      </c>
+      <c r="M52" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="3">
+        <v>50</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I53" s="4">
+        <v>4900</v>
+      </c>
+      <c r="J53" s="4">
+        <v>4</v>
+      </c>
+      <c r="K53" s="4">
+        <v>2</v>
+      </c>
+      <c r="L53" s="4">
         <v>1000</v>
       </c>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4">
-        <v>100</v>
-      </c>
-      <c r="J4" s="4">
-        <v>-1</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>2</v>
-      </c>
-      <c r="M4" s="4">
-        <v>2</v>
-      </c>
-      <c r="N4" s="4">
-        <v>2</v>
+      <c r="M53" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="3">
+        <v>51</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G54" s="4">
+        <v>2</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I54" s="4">
+        <v>6</v>
+      </c>
+      <c r="J54" s="4">
+        <v>4</v>
+      </c>
+      <c r="K54" s="4">
+        <v>2</v>
+      </c>
+      <c r="L54" s="4">
+        <v>4</v>
+      </c>
+      <c r="M54" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="3">
+        <v>52</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="G55" s="4">
+        <v>2</v>
+      </c>
+      <c r="H55" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I55" s="4">
+        <v>29</v>
+      </c>
+      <c r="J55" s="4">
+        <v>4</v>
+      </c>
+      <c r="K55" s="4">
+        <v>2</v>
+      </c>
+      <c r="L55" s="4">
+        <v>20</v>
+      </c>
+      <c r="M55" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="3">
+        <v>53</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="G56" s="4">
+        <v>2</v>
+      </c>
+      <c r="H56" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I56" s="4">
+        <v>153</v>
+      </c>
+      <c r="J56" s="4">
+        <v>4</v>
+      </c>
+      <c r="K56" s="4">
+        <v>2</v>
+      </c>
+      <c r="L56" s="4">
+        <v>90</v>
+      </c>
+      <c r="M56" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="3">
+        <v>54</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G57" s="4">
+        <v>2</v>
+      </c>
+      <c r="H57" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I57" s="4">
+        <v>832</v>
+      </c>
+      <c r="J57" s="4">
+        <v>4</v>
+      </c>
+      <c r="K57" s="4">
+        <v>2</v>
+      </c>
+      <c r="L57" s="4">
+        <v>300</v>
+      </c>
+      <c r="M57" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="3">
+        <v>55</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="4">
+        <v>3</v>
+      </c>
+      <c r="G58" s="4">
+        <v>2</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I58" s="4">
+        <v>4233</v>
+      </c>
+      <c r="J58" s="4">
+        <v>4</v>
+      </c>
+      <c r="K58" s="4">
+        <v>2</v>
+      </c>
+      <c r="L58" s="4">
+        <v>1200</v>
+      </c>
+      <c r="M58" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="3">
+        <v>56</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I59" s="4">
+        <v>4</v>
+      </c>
+      <c r="J59" s="4">
+        <v>5</v>
+      </c>
+      <c r="K59" s="4">
+        <v>2</v>
+      </c>
+      <c r="L59" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="3">
+        <v>57</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I60" s="4">
+        <v>18</v>
+      </c>
+      <c r="J60" s="4">
+        <v>5</v>
+      </c>
+      <c r="K60" s="4">
+        <v>2</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="3">
+        <v>58</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I61" s="4">
+        <v>83</v>
+      </c>
+      <c r="J61" s="4">
+        <v>5</v>
+      </c>
+      <c r="K61" s="4">
+        <v>2</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="3">
+        <v>59</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I62" s="4">
+        <v>376</v>
+      </c>
+      <c r="J62" s="4">
+        <v>5</v>
+      </c>
+      <c r="K62" s="4">
+        <v>2</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="3">
+        <v>60</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I63" s="4">
+        <v>1606</v>
+      </c>
+      <c r="J63" s="4">
+        <v>5</v>
+      </c>
+      <c r="K63" s="4">
+        <v>2</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="3">
+        <v>61</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I64" s="4">
+        <v>6</v>
+      </c>
+      <c r="J64" s="4">
+        <v>3</v>
+      </c>
+      <c r="K64" s="4">
+        <v>2</v>
+      </c>
+      <c r="L64" s="4">
+        <v>2</v>
+      </c>
+      <c r="M64" s="4">
+        <v>3</v>
+      </c>
+      <c r="N64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="3">
+        <v>62</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1</v>
+      </c>
+      <c r="H65" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I65" s="4">
+        <v>17</v>
+      </c>
+      <c r="J65" s="4">
+        <v>3</v>
+      </c>
+      <c r="K65" s="4">
+        <v>2</v>
+      </c>
+      <c r="L65" s="4">
+        <v>15</v>
+      </c>
+      <c r="M65" s="4">
+        <v>3</v>
+      </c>
+      <c r="N65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>63</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I66" s="4">
+        <v>117</v>
+      </c>
+      <c r="J66" s="4">
+        <v>3</v>
+      </c>
+      <c r="K66" s="4">
+        <v>2</v>
+      </c>
+      <c r="L66" s="4">
+        <v>50</v>
+      </c>
+      <c r="M66" s="4">
+        <v>3</v>
+      </c>
+      <c r="N66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3">
+        <v>64</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I67" s="4">
+        <v>435</v>
+      </c>
+      <c r="J67" s="4">
+        <v>3</v>
+      </c>
+      <c r="K67" s="4">
+        <v>2</v>
+      </c>
+      <c r="L67" s="4">
+        <v>300</v>
+      </c>
+      <c r="M67" s="4">
+        <v>3</v>
+      </c>
+      <c r="N67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="3">
+        <v>65</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="G68" s="4">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I68" s="4">
+        <v>3007</v>
+      </c>
+      <c r="J68" s="4">
+        <v>3</v>
+      </c>
+      <c r="K68" s="4">
+        <v>2</v>
+      </c>
+      <c r="L68" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M68" s="4">
+        <v>3</v>
+      </c>
+      <c r="N68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="3">
+        <v>66</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I69" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="3">
+        <v>67</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F70" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="G70" s="4">
+        <v>1</v>
+      </c>
+      <c r="H70" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I70" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="3">
+        <v>68</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G71" s="4">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I71" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="3">
+        <v>69</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G72" s="4">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I72" s="4">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" s="3">
+        <v>70</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1</v>
+      </c>
+      <c r="H73" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I73" s="4">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="3">
+        <v>71</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1</v>
+      </c>
+      <c r="H74" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I74" s="4">
+        <v>2</v>
+      </c>
+      <c r="J74" s="4">
+        <v>3</v>
+      </c>
+      <c r="K74" s="4">
+        <v>2</v>
+      </c>
+      <c r="L74" s="4">
+        <v>2</v>
+      </c>
+      <c r="M74" s="4">
+        <v>2</v>
+      </c>
+      <c r="N74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="3">
+        <v>72</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G75" s="4">
+        <v>1</v>
+      </c>
+      <c r="H75" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I75" s="4">
+        <v>20</v>
+      </c>
+      <c r="J75" s="4">
+        <v>3</v>
+      </c>
+      <c r="K75" s="4">
+        <v>2</v>
+      </c>
+      <c r="L75" s="4">
+        <v>5</v>
+      </c>
+      <c r="M75" s="4">
+        <v>2</v>
+      </c>
+      <c r="N75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="3">
+        <v>73</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I76" s="4">
+        <v>106</v>
+      </c>
+      <c r="J76" s="4">
+        <v>3</v>
+      </c>
+      <c r="K76" s="4">
+        <v>2</v>
+      </c>
+      <c r="L76" s="4">
+        <v>22</v>
+      </c>
+      <c r="M76" s="4">
+        <v>2</v>
+      </c>
+      <c r="N76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="3">
+        <v>74</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F77" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G77" s="4">
+        <v>1</v>
+      </c>
+      <c r="H77" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I77" s="4">
+        <v>313</v>
+      </c>
+      <c r="J77" s="4">
+        <v>3</v>
+      </c>
+      <c r="K77" s="4">
+        <v>2</v>
+      </c>
+      <c r="L77" s="4">
+        <v>177</v>
+      </c>
+      <c r="M77" s="4">
+        <v>2</v>
+      </c>
+      <c r="N77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="3">
+        <v>75</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F78" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I78" s="4">
+        <v>2204</v>
+      </c>
+      <c r="J78" s="4">
+        <v>3</v>
+      </c>
+      <c r="K78" s="4">
+        <v>2</v>
+      </c>
+      <c r="L78" s="4">
+        <v>500</v>
+      </c>
+      <c r="M78" s="4">
+        <v>2</v>
+      </c>
+      <c r="N78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="3">
+        <v>76</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F79" s="4">
+        <v>5</v>
+      </c>
+      <c r="G79" s="4">
+        <v>1</v>
+      </c>
+      <c r="H79" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I79" s="4">
+        <v>10</v>
+      </c>
+      <c r="J79" s="4">
+        <v>4</v>
+      </c>
+      <c r="K79" s="4">
+        <v>4</v>
+      </c>
+      <c r="L79" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="3">
+        <v>77</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F80" s="4">
+        <v>5</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+      <c r="H80" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I80" s="4">
+        <v>49</v>
+      </c>
+      <c r="J80" s="4">
+        <v>4</v>
+      </c>
+      <c r="K80" s="4">
+        <v>22</v>
+      </c>
+      <c r="L80" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="3">
+        <v>78</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1</v>
+      </c>
+      <c r="H81" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I81" s="4">
+        <v>233</v>
+      </c>
+      <c r="J81" s="4">
+        <v>4</v>
+      </c>
+      <c r="K81" s="4">
+        <v>90</v>
+      </c>
+      <c r="L81" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" s="3">
+        <v>79</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G82" s="4">
+        <v>1</v>
+      </c>
+      <c r="H82" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1014</v>
+      </c>
+      <c r="J82" s="4">
+        <v>4</v>
+      </c>
+      <c r="K82" s="4">
+        <v>600</v>
+      </c>
+      <c r="L82" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="3">
+        <v>80</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F83" s="4">
+        <v>4</v>
+      </c>
+      <c r="G83" s="4">
+        <v>1</v>
+      </c>
+      <c r="H83" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I83" s="4">
+        <v>5615</v>
+      </c>
+      <c r="J83" s="4">
+        <v>4</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1200</v>
+      </c>
+      <c r="L83" s="4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelConfig/技能配置表.xlsx
+++ b/ExcelConfig/技能配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="0" windowWidth="5130" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="216" yWindow="0" windowWidth="5136" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="SkillConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -587,7 +587,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -629,7 +629,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -664,7 +664,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -879,16 +879,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -916,27 +916,27 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="40.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" style="4" customWidth="1"/>
     <col min="5" max="6" width="15" style="4" customWidth="1"/>
     <col min="7" max="7" width="17" style="4" customWidth="1"/>
-    <col min="8" max="9" width="20.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -980,7 +980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>53</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>53</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>56</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>56</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>56</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>56</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>56</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>57</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>57</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>57</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>57</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>5283</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>58</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>58</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>58</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>58</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>59</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
         <v>59</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
         <v>59</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
         <v>59</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>59</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>8105</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
         <v>60</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
         <v>60</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
         <v>60</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
         <v>60</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
         <v>60</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
         <v>61</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
         <v>61</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
         <v>61</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
         <v>61</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
         <v>61</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
         <v>62</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
         <v>62</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="6" t="s">
         <v>62</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
         <v>62</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
         <v>63</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" s="6" t="s">
         <v>63</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
         <v>63</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" s="6" t="s">
         <v>63</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
         <v>63</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" s="6" t="s">
         <v>64</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" s="6" t="s">
         <v>64</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
         <v>64</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
         <v>64</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
         <v>64</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
         <v>54</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
         <v>54</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
         <v>54</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
         <v>65</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
         <v>65</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" s="6" t="s">
         <v>65</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
         <v>65</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
         <v>65</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
         <v>66</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" s="6" t="s">
         <v>66</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" s="6" t="s">
         <v>66</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
         <v>66</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
         <v>66</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
         <v>67</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
         <v>67</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
         <v>67</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
         <v>67</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
         <v>67</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
         <v>68</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
         <v>68</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>68</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
         <v>68</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>68</v>
       </c>

--- a/ExcelConfig/技能配置表.xlsx
+++ b/ExcelConfig/技能配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="216" yWindow="0" windowWidth="5136" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="210" yWindow="0" windowWidth="5130" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="SkillConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -28,6 +28,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -37,6 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -45,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,6 +55,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -62,6 +65,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -70,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,6 +82,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -87,6 +92,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -98,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,6 +112,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -115,6 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -128,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="75">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -440,6 +448,10 @@
   </si>
   <si>
     <t>造成2080点伤害，降低目标300点伤害，持续2秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试技能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -507,6 +519,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -514,6 +527,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -587,7 +601,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -629,7 +643,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -664,7 +678,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -879,16 +893,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,33 +924,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T83"/>
+  <dimension ref="A1:T84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="40.75" style="4" customWidth="1"/>
     <col min="5" max="6" width="15" style="4" customWidth="1"/>
     <col min="7" max="7" width="17" style="4" customWidth="1"/>
-    <col min="8" max="9" width="20.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -980,7 +994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1024,7 +1038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -1107,7 +1121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -1146,7 +1160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
@@ -1185,7 +1199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -1232,7 +1246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
@@ -1285,7 +1299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
@@ -1329,7 +1343,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
@@ -1370,7 +1384,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -1408,7 +1422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>53</v>
       </c>
@@ -1440,7 +1454,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>53</v>
       </c>
@@ -1472,7 +1486,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>56</v>
       </c>
@@ -1510,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>56</v>
       </c>
@@ -1548,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>56</v>
       </c>
@@ -1586,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>56</v>
       </c>
@@ -1624,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>56</v>
       </c>
@@ -1662,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>57</v>
       </c>
@@ -1686,7 +1700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
@@ -1710,7 +1724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>57</v>
       </c>
@@ -1734,7 +1748,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>57</v>
       </c>
@@ -1758,7 +1772,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>57</v>
       </c>
@@ -1782,7 +1796,7 @@
         <v>5283</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
@@ -1821,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>58</v>
       </c>
@@ -1860,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>58</v>
       </c>
@@ -1899,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>58</v>
       </c>
@@ -1938,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>58</v>
       </c>
@@ -1977,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>59</v>
       </c>
@@ -2001,7 +2015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>59</v>
       </c>
@@ -2025,7 +2039,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>59</v>
       </c>
@@ -2049,7 +2063,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>59</v>
       </c>
@@ -2073,7 +2087,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>59</v>
       </c>
@@ -2097,7 +2111,7 @@
         <v>8105</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>60</v>
       </c>
@@ -2130,7 +2144,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>60</v>
       </c>
@@ -2163,7 +2177,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>60</v>
       </c>
@@ -2196,7 +2210,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>60</v>
       </c>
@@ -2229,7 +2243,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>60</v>
       </c>
@@ -2262,7 +2276,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>61</v>
       </c>
@@ -2286,7 +2300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>61</v>
       </c>
@@ -2310,7 +2324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>61</v>
       </c>
@@ -2334,7 +2348,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>61</v>
       </c>
@@ -2358,7 +2372,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>61</v>
       </c>
@@ -2382,7 +2396,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>62</v>
       </c>
@@ -2415,7 +2429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>62</v>
       </c>
@@ -2481,7 +2495,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>62</v>
       </c>
@@ -2514,7 +2528,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>62</v>
       </c>
@@ -2547,7 +2561,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>63</v>
       </c>
@@ -2583,7 +2597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>63</v>
       </c>
@@ -2619,7 +2633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>63</v>
       </c>
@@ -2655,7 +2669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>63</v>
       </c>
@@ -2691,7 +2705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>63</v>
       </c>
@@ -2727,7 +2741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>64</v>
       </c>
@@ -2763,7 +2777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>64</v>
       </c>
@@ -2799,7 +2813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>64</v>
       </c>
@@ -2835,7 +2849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>64</v>
       </c>
@@ -2871,7 +2885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>64</v>
       </c>
@@ -2907,7 +2921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>54</v>
       </c>
@@ -2940,7 +2954,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -2973,7 +2987,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>54</v>
       </c>
@@ -3006,7 +3020,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
@@ -3039,7 +3053,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>54</v>
       </c>
@@ -3072,7 +3086,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>65</v>
       </c>
@@ -3111,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>65</v>
       </c>
@@ -3150,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>65</v>
       </c>
@@ -3189,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>65</v>
       </c>
@@ -3228,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>65</v>
       </c>
@@ -3267,7 +3281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>66</v>
       </c>
@@ -3291,7 +3305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>66</v>
       </c>
@@ -3315,7 +3329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>66</v>
       </c>
@@ -3339,7 +3353,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>66</v>
       </c>
@@ -3363,7 +3377,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>66</v>
       </c>
@@ -3387,7 +3401,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>67</v>
       </c>
@@ -3426,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>67</v>
       </c>
@@ -3465,7 +3479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>67</v>
       </c>
@@ -3504,7 +3518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>67</v>
       </c>
@@ -3543,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>67</v>
       </c>
@@ -3582,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>68</v>
       </c>
@@ -3615,7 +3629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>68</v>
       </c>
@@ -3648,7 +3662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>68</v>
       </c>
@@ -3681,7 +3695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>68</v>
       </c>
@@ -3714,7 +3728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>68</v>
       </c>
@@ -3745,6 +3759,30 @@
       </c>
       <c r="L83" s="4">
         <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="3">
+        <v>81</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F84" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1</v>
+      </c>
+      <c r="H84" s="4">
+        <f>IF(G84=1,2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/技能配置表.xlsx
+++ b/ExcelConfig/技能配置表.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="0" windowWidth="5130" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="6720" yWindow="-210" windowWidth="18690" windowHeight="9105" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="SkillConfig" sheetId="1" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -20,6 +23,32 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+秒</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G3" authorId="0">
       <text>
         <r>
@@ -96,7 +125,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1-直接治疗
+1-回血（治疗/吸血）
 2-hot
 3-dot
 4-削弱伤害
@@ -136,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="172">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -218,10 +247,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主要效果目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>附加效果类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -238,10 +263,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>附加效果目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>击晕</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -369,9 +390,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>灵吉菩萨</t>
-  </si>
-  <si>
     <t>九尾狐</t>
   </si>
   <si>
@@ -379,22 +397,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>如意真仙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>青狮道人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>白骨精</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>文殊菩萨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>黄袍怪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -411,47 +417,1631 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>菩提老祖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>红孩儿</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>二郎神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哪咤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>谛听</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成3点伤害，降低目标1点伤害，持续2秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成17点伤害，降低目标4点伤害，持续2秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成87点伤害，降低目标20点伤害，持续2秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成444点伤害，降低目标90点伤害，持续2秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成2080点伤害，降低目标300点伤害，持续2秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试技能</t>
+    <t>八戒元神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害并短暂击晕目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺骨Ⅰ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺骨Ⅱ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺骨Ⅲ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害并附加持续效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪狼Ⅰ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂山Ⅰ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂山Ⅱ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂山Ⅲ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪狼Ⅱ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪狼Ⅲ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风陨Ⅰ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风陨Ⅱ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风陨Ⅲ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歃血Ⅰ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歃血Ⅱ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歃血Ⅲ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害并吸取生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强固Ⅰ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强固Ⅱ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强固Ⅲ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅惑Ⅰ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害并降低目标伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焚焱Ⅰ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焚焱Ⅱ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焚焱Ⅲ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饕餮Ⅰ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饕餮Ⅱ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饕餮Ⅲ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>云栈洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>云栈洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>云栈洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>云栈洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>云栈洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄风岭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄风岭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄风岭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄风岭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄风岭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白骨洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白骨洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白骨洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白骨洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白骨洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白骨洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波月洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波月洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波月洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波月洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波月洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波月洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波月洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波月洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波月洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>莲花洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>莲花洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>莲花洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>莲花洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>莲花洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>莲花洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>莲花洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>莲花洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>莲花洞9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火云洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火云洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火云洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火云洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火云洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火云洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火云洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火云洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火云洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火云洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火云洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>猛击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云栈洞jjc1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云栈洞jjc2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云栈洞jjc3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云栈洞jjc4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云栈洞jjc5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风岭jjc1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风岭jjc2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风岭jjc3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风岭jjc4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风岭jjc5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨洞jjc1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨洞jjc2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨洞jjc3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨洞jjc4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨洞jjc5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波月洞jjc1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波月洞jjc2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波月洞jjc3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波月洞jjc4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波月洞jjc5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花洞jjc1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花洞jjc2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花洞jjc3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花洞jjc4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花洞jjc5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花洞jjc6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云洞jjc1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云洞jjc2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云洞jjc3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云洞jjc4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云洞jjc5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云洞jjc6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云洞jjc7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +2049,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +2134,35 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -559,7 +2178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -567,11 +2186,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -582,6 +2212,16 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,6 +2238,191 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="点集分布"/>
+      <sheetName val="建筑数据"/>
+      <sheetName val="副本数据"/>
+      <sheetName val="兵种数据A"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="254">
+          <cell r="O254">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="O255">
+            <v>3.33</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="O256">
+            <v>3.33</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="O257">
+            <v>3.33</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="O258">
+            <v>3.33</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="O259">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="O260">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="O261">
+            <v>3.33</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="O262">
+            <v>3.33</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="O263">
+            <v>3.33</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="O264">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="O265">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="O266">
+            <v>2.86</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="O267">
+            <v>2.86</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="O268">
+            <v>3.33</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="O269">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="O270">
+            <v>2.86</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="O271">
+            <v>2.86</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="O272">
+            <v>2.86</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="O273">
+            <v>2.86</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="O274">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="O275">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="O276">
+            <v>2.86</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="O277">
+            <v>2.86</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="O278">
+            <v>2.86</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="O279">
+            <v>3.33</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="O280">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="O281">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="O282">
+            <v>2.86</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="O283">
+            <v>2.86</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="O284">
+            <v>2.86</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="O285">
+            <v>2.86</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="O286">
+            <v>3.33</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -924,33 +2749,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T84"/>
+  <dimension ref="A1:T108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J84" sqref="J84"/>
+      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="40.75" style="4" customWidth="1"/>
-    <col min="5" max="6" width="15" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="4" customWidth="1"/>
-    <col min="8" max="9" width="20.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.125" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="4"/>
+    <col min="15" max="17" width="9" style="4"/>
+    <col min="18" max="18" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -967,22 +2797,22 @@
         <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>17</v>
@@ -1011,7 +2841,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>5</v>
@@ -1055,127 +2885,118 @@
         <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
         <v>26</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="4">
-        <v>4</v>
-      </c>
-      <c r="K4" s="4">
-        <v>2</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4">
-        <v>17</v>
-      </c>
       <c r="J5" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" s="4">
         <v>2</v>
       </c>
       <c r="L5" s="4">
-        <v>4</v>
-      </c>
-      <c r="M5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
-        <v>1.5</v>
+      <c r="C6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -1184,36 +3005,33 @@
         <v>2</v>
       </c>
       <c r="I6" s="4">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" s="4">
         <v>2</v>
       </c>
       <c r="L6" s="4">
-        <v>20</v>
-      </c>
-      <c r="M6" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>55</v>
+      <c r="A7" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>72</v>
+      <c r="C7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F7" s="4">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -1222,45 +3040,48 @@
         <v>2</v>
       </c>
       <c r="I7" s="4">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="J7" s="4">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
         <v>4</v>
       </c>
-      <c r="K7" s="4">
-        <v>2</v>
-      </c>
-      <c r="L7" s="4">
-        <v>90</v>
-      </c>
       <c r="M7" s="4">
         <v>2</v>
       </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
       <c r="P7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>55</v>
+      <c r="A8" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>73</v>
+      <c r="C8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F8" s="4">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -1269,34 +3090,37 @@
         <v>2</v>
       </c>
       <c r="I8" s="4">
-        <v>2080</v>
+        <v>33</v>
       </c>
       <c r="J8" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" s="4">
         <v>2</v>
       </c>
       <c r="L8" s="4">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="M8" s="4">
         <v>2</v>
       </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
       <c r="P8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -1306,64 +3130,76 @@
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>53</v>
+      <c r="C9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F9" s="4">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="G9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="4">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="J9" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9" s="4">
         <v>2</v>
       </c>
       <c r="L9" s="4">
-        <v>0.5</v>
+        <v>40</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>53</v>
+      <c r="C10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F10" s="4">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="J10" s="4">
         <v>5</v>
@@ -1375,36 +3211,39 @@
         <v>0.5</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>53</v>
+      <c r="C11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F11" s="4">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="4">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="J11" s="4">
         <v>5</v>
@@ -1416,33 +3255,36 @@
         <v>0.5</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>53</v>
+      <c r="C12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F12" s="4">
         <v>2.9</v>
       </c>
       <c r="G12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="4">
-        <v>924</v>
+        <v>128</v>
       </c>
       <c r="J12" s="4">
         <v>5</v>
@@ -1456,48 +3298,45 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>53</v>
+      <c r="C13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F13" s="4">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="G13" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4">
-        <v>3561</v>
-      </c>
-      <c r="J13" s="4">
-        <v>5</v>
-      </c>
-      <c r="K13" s="4">
-        <v>2</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>56</v>
+      <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F14" s="4">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -1506,36 +3345,24 @@
         <v>2</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4">
-        <v>3</v>
-      </c>
-      <c r="K14" s="4">
-        <v>2</v>
-      </c>
-      <c r="L14" s="4">
-        <v>2</v>
-      </c>
-      <c r="M14" s="4">
-        <v>2</v>
-      </c>
-      <c r="N14" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>56</v>
+      <c r="C15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F15" s="4">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -1544,36 +3371,24 @@
         <v>2</v>
       </c>
       <c r="I15" s="4">
-        <v>16</v>
-      </c>
-      <c r="J15" s="4">
-        <v>3</v>
-      </c>
-      <c r="K15" s="4">
-        <v>2</v>
-      </c>
-      <c r="L15" s="4">
-        <v>5</v>
-      </c>
-      <c r="M15" s="4">
-        <v>2</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>56</v>
+      <c r="C16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F16" s="4">
-        <v>2.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -1582,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="4">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="J16" s="4">
         <v>3</v>
@@ -1591,7 +3406,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M16" s="4">
         <v>2</v>
@@ -1600,18 +3415,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>56</v>
+      <c r="C17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F17" s="4">
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
@@ -1620,7 +3438,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="4">
-        <v>366</v>
+        <v>30</v>
       </c>
       <c r="J17" s="4">
         <v>3</v>
@@ -1629,7 +3447,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="M17" s="4">
         <v>2</v>
@@ -1638,18 +3456,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>56</v>
+      <c r="C18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F18" s="4">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
@@ -1658,7 +3479,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="4">
-        <v>2003</v>
+        <v>128</v>
       </c>
       <c r="J18" s="4">
         <v>3</v>
@@ -1667,7 +3488,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="4">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="M18" s="4">
         <v>2</v>
@@ -1683,21 +3504,35 @@
       <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>57</v>
+      <c r="C19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="F19" s="4">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
       </c>
       <c r="H19" s="4">
-        <f>IF(G19=1,2,1)</f>
         <v>2</v>
       </c>
       <c r="I19" s="4">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="J19" s="4">
+        <v>4</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2</v>
+      </c>
+      <c r="L19" s="4">
+        <v>3</v>
+      </c>
+      <c r="M19" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1707,21 +3542,35 @@
       <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>57</v>
+      <c r="C20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="F20" s="4">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" ref="H20:H83" si="0">IF(G20=1,2,1)</f>
         <v>2</v>
       </c>
       <c r="I20" s="4">
-        <v>47</v>
+        <v>16</v>
+      </c>
+      <c r="J20" s="4">
+        <v>4</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2</v>
+      </c>
+      <c r="L20" s="4">
+        <v>11</v>
+      </c>
+      <c r="M20" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1731,108 +3580,140 @@
       <c r="B21" s="3">
         <v>18</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>57</v>
+      <c r="C21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="F21" s="4">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I21" s="4">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="J21" s="4">
+        <v>4</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2</v>
+      </c>
+      <c r="L21" s="4">
+        <v>50</v>
+      </c>
+      <c r="M21" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3">
         <v>19</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>57</v>
+      <c r="C22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="F22" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>6</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
         <v>3</v>
       </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>57</v>
+      <c r="C23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="F23" s="4">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G23" s="4">
         <v>1</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I23" s="4">
-        <v>5283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>21</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>58</v>
+      <c r="C24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="F24" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I24" s="4">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="J24" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24" s="4">
-        <v>2</v>
-      </c>
-      <c r="M24" s="4">
-        <v>3</v>
-      </c>
-      <c r="N24" s="4">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1842,8 +3723,11 @@
       <c r="B25" s="3">
         <v>22</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>58</v>
+      <c r="C25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F25" s="4">
         <v>4</v>
@@ -1852,11 +3736,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I25" s="4">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="J25" s="4">
         <v>3</v>
@@ -1865,10 +3748,10 @@
         <v>2</v>
       </c>
       <c r="L25" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M25" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N25" s="4">
         <v>1</v>
@@ -1881,21 +3764,23 @@
       <c r="B26" s="3">
         <v>23</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>58</v>
+      <c r="C26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F26" s="4">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I26" s="4">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="J26" s="4">
         <v>3</v>
@@ -1904,10 +3789,10 @@
         <v>2</v>
       </c>
       <c r="L26" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M26" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26" s="4">
         <v>1</v>
@@ -1920,8 +3805,11 @@
       <c r="B27" s="3">
         <v>24</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>58</v>
+      <c r="C27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F27" s="4">
         <v>3.3</v>
@@ -1930,11 +3818,10 @@
         <v>1</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I27" s="4">
-        <v>1128</v>
+        <v>113</v>
       </c>
       <c r="J27" s="4">
         <v>3</v>
@@ -1943,1026 +3830,895 @@
         <v>2</v>
       </c>
       <c r="L27" s="4">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M27" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>58</v>
+    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B28" s="3">
         <v>25</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>58</v>
+      <c r="C28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="F28" s="4">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I28" s="4">
-        <v>5899</v>
+        <v>3</v>
       </c>
       <c r="J28" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K28" s="4">
         <v>2</v>
       </c>
       <c r="L28" s="4">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="M28" s="4">
         <v>3</v>
       </c>
-      <c r="N28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+    </row>
+    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="3">
         <v>26</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>59</v>
+      <c r="C29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="F29" s="4">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G29" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="4">
+        <v>4</v>
+      </c>
+      <c r="K29" s="4">
+        <v>2</v>
+      </c>
+      <c r="L29" s="4">
+        <v>10</v>
+      </c>
+      <c r="M29" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="3">
         <v>27</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>59</v>
+      <c r="C30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="F30" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="G30" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="4">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="J30" s="4">
+        <v>4</v>
+      </c>
+      <c r="K30" s="4">
+        <v>2</v>
+      </c>
+      <c r="L30" s="4">
+        <v>30</v>
+      </c>
+      <c r="M30" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>59</v>
+      <c r="A31" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="B31" s="3">
         <v>28</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>59</v>
+      <c r="C31" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F31" s="4">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="G31" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" s="4">
-        <v>352</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>59</v>
+      <c r="A32" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="B32" s="3">
         <v>29</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>59</v>
+      <c r="C32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F32" s="4">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="G32" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="4">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>59</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="B33" s="3">
         <v>30</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>59</v>
+      <c r="C33" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F33" s="4">
-        <v>4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G33" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="4">
-        <v>8105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>60</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="B34" s="3">
         <v>31</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>60</v>
+      <c r="C34" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F34" s="4">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I34" s="4">
-        <v>8</v>
-      </c>
-      <c r="J34" s="4">
-        <v>5</v>
-      </c>
-      <c r="K34" s="4">
-        <v>2</v>
-      </c>
-      <c r="L34" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>60</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="B35" s="3">
         <v>32</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>60</v>
+      <c r="C35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F35" s="4">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I35" s="4">
-        <v>39</v>
-      </c>
-      <c r="J35" s="4">
-        <v>5</v>
-      </c>
-      <c r="K35" s="4">
-        <v>2</v>
-      </c>
-      <c r="L35" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>60</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="B36" s="3">
         <v>33</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>60</v>
+      <c r="C36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F36" s="4">
-        <v>3.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I36" s="4">
-        <v>175</v>
-      </c>
-      <c r="J36" s="4">
-        <v>5</v>
-      </c>
-      <c r="K36" s="4">
-        <v>2</v>
-      </c>
-      <c r="L36" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="B37" s="3">
         <v>34</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>60</v>
+      <c r="C37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F37" s="4">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I37" s="4">
-        <v>785</v>
-      </c>
-      <c r="J37" s="4">
-        <v>5</v>
-      </c>
-      <c r="K37" s="4">
-        <v>2</v>
-      </c>
-      <c r="L37" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>60</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="B38" s="3">
         <v>35</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>60</v>
+      <c r="C38" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F38" s="4">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I38" s="4">
-        <v>3457</v>
-      </c>
-      <c r="J38" s="4">
-        <v>5</v>
-      </c>
-      <c r="K38" s="4">
-        <v>2</v>
-      </c>
-      <c r="L38" s="4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="B39" s="3">
         <v>36</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>61</v>
+      <c r="C39" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F39" s="4">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I39" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>61</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="B40" s="3">
         <v>37</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>61</v>
+      <c r="C40" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F40" s="4">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I40" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="B41" s="3">
         <v>38</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>61</v>
+      <c r="C41" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F41" s="4">
-        <v>0.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G41" s="4">
         <v>1</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I41" s="4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>61</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="B42" s="3">
         <v>39</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>61</v>
+      <c r="C42" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F42" s="4">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I42" s="4">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>61</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="B43" s="3">
         <v>40</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>61</v>
+      <c r="C43" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F43" s="4">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="G43" s="4">
         <v>1</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I43" s="4">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>62</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="B44" s="3">
         <v>41</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>62</v>
+      <c r="C44" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F44" s="4">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="G44" s="4">
         <v>1</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I44" s="4">
-        <v>3</v>
-      </c>
-      <c r="J44" s="4">
-        <v>1</v>
-      </c>
-      <c r="K44" s="4">
-        <v>1</v>
-      </c>
-      <c r="L44" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>62</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="B45" s="3">
         <v>42</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>62</v>
+      <c r="C45" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F45" s="4">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G45" s="4">
         <v>1</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I45" s="4">
-        <v>15</v>
-      </c>
-      <c r="J45" s="4">
-        <v>1</v>
-      </c>
-      <c r="K45" s="4">
-        <v>1</v>
-      </c>
-      <c r="L45" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="B46" s="3">
         <v>43</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>62</v>
+      <c r="C46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F46" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="G46" s="4">
         <v>1</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I46" s="4">
-        <v>70</v>
-      </c>
-      <c r="J46" s="4">
-        <v>1</v>
-      </c>
-      <c r="K46" s="4">
-        <v>1</v>
-      </c>
-      <c r="L46" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="B47" s="3">
         <v>44</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>62</v>
+      <c r="C47" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F47" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="G47" s="4">
         <v>1</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I47" s="4">
-        <v>348</v>
-      </c>
-      <c r="J47" s="4">
-        <v>1</v>
-      </c>
-      <c r="K47" s="4">
-        <v>1</v>
-      </c>
-      <c r="L47" s="4">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>62</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="B48" s="3">
         <v>45</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>62</v>
+      <c r="C48" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F48" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="G48" s="4">
         <v>1</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I48" s="4">
-        <v>1633</v>
-      </c>
-      <c r="J48" s="4">
-        <v>1</v>
-      </c>
-      <c r="K48" s="4">
-        <v>1</v>
-      </c>
-      <c r="L48" s="4">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="B49" s="3">
         <v>46</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4">
+        <v>2</v>
+      </c>
+      <c r="I49" s="4">
         <v>63</v>
       </c>
-      <c r="F49" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G49" s="4">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I49" s="4">
-        <v>11</v>
-      </c>
-      <c r="J49" s="4">
-        <v>4</v>
-      </c>
-      <c r="K49" s="4">
-        <v>2</v>
-      </c>
-      <c r="L49" s="4">
-        <v>2</v>
-      </c>
-      <c r="M49" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>63</v>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="B50" s="3">
         <v>47</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>63</v>
+      <c r="C50" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F50" s="4">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="G50" s="4">
         <v>1</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I50" s="4">
-        <v>51</v>
-      </c>
-      <c r="J50" s="4">
-        <v>4</v>
-      </c>
-      <c r="K50" s="4">
-        <v>2</v>
-      </c>
-      <c r="L50" s="4">
-        <v>10</v>
-      </c>
-      <c r="M50" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="B51" s="3">
         <v>48</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>63</v>
+      <c r="C51" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F51" s="4">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="G51" s="4">
         <v>1</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I51" s="4">
-        <v>255</v>
-      </c>
-      <c r="J51" s="4">
-        <v>4</v>
-      </c>
-      <c r="K51" s="4">
-        <v>2</v>
-      </c>
-      <c r="L51" s="4">
-        <v>50</v>
-      </c>
-      <c r="M51" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="B52" s="3">
         <v>49</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>63</v>
+      <c r="C52" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F52" s="4">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="G52" s="4">
         <v>1</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I52" s="4">
-        <v>1021</v>
-      </c>
-      <c r="J52" s="4">
-        <v>4</v>
-      </c>
-      <c r="K52" s="4">
-        <v>2</v>
-      </c>
-      <c r="L52" s="4">
-        <v>300</v>
-      </c>
-      <c r="M52" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>63</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="B53" s="3">
         <v>50</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>63</v>
+      <c r="C53" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F53" s="4">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="G53" s="4">
         <v>1</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I53" s="4">
-        <v>4900</v>
-      </c>
-      <c r="J53" s="4">
-        <v>4</v>
-      </c>
-      <c r="K53" s="4">
-        <v>2</v>
-      </c>
-      <c r="L53" s="4">
-        <v>1000</v>
-      </c>
-      <c r="M53" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>64</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="B54" s="3">
         <v>51</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>64</v>
+      <c r="C54" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F54" s="4">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="G54" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" s="4">
-        <v>6</v>
-      </c>
-      <c r="J54" s="4">
-        <v>4</v>
-      </c>
-      <c r="K54" s="4">
-        <v>2</v>
-      </c>
-      <c r="L54" s="4">
-        <v>4</v>
-      </c>
-      <c r="M54" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="B55" s="3">
         <v>52</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>64</v>
+      <c r="C55" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F55" s="4">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="G55" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" s="4">
-        <v>29</v>
-      </c>
-      <c r="J55" s="4">
-        <v>4</v>
-      </c>
-      <c r="K55" s="4">
-        <v>2</v>
-      </c>
-      <c r="L55" s="4">
-        <v>20</v>
-      </c>
-      <c r="M55" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>64</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="B56" s="3">
         <v>53</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>64</v>
+      <c r="C56" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F56" s="4">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="G56" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" s="4">
-        <v>153</v>
-      </c>
-      <c r="J56" s="4">
-        <v>4</v>
-      </c>
-      <c r="K56" s="4">
-        <v>2</v>
-      </c>
-      <c r="L56" s="4">
-        <v>90</v>
-      </c>
-      <c r="M56" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>64</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="B57" s="3">
         <v>54</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>64</v>
+      <c r="C57" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F57" s="4">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="G57" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" s="4">
-        <v>832</v>
-      </c>
-      <c r="J57" s="4">
-        <v>4</v>
-      </c>
-      <c r="K57" s="4">
-        <v>2</v>
-      </c>
-      <c r="L57" s="4">
-        <v>300</v>
-      </c>
-      <c r="M57" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>64</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="B58" s="3">
         <v>55</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>64</v>
+      <c r="C58" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F58" s="4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G58" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" s="4">
-        <v>4233</v>
-      </c>
-      <c r="J58" s="4">
-        <v>4</v>
-      </c>
-      <c r="K58" s="4">
-        <v>2</v>
-      </c>
-      <c r="L58" s="4">
-        <v>1200</v>
-      </c>
-      <c r="M58" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>54</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="B59" s="3">
         <v>56</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>54</v>
+      <c r="C59" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F59" s="4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="G59" s="4">
         <v>1</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I59" s="4">
-        <v>4</v>
-      </c>
-      <c r="J59" s="4">
-        <v>5</v>
-      </c>
-      <c r="K59" s="4">
-        <v>2</v>
-      </c>
-      <c r="L59" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>54</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="B60" s="3">
         <v>57</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>54</v>
+      <c r="C60" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F60" s="4">
         <v>2.5</v>
@@ -2971,97 +4727,76 @@
         <v>1</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I60" s="4">
-        <v>18</v>
-      </c>
-      <c r="J60" s="4">
-        <v>5</v>
-      </c>
-      <c r="K60" s="4">
-        <v>2</v>
-      </c>
-      <c r="L60" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>54</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="B61" s="3">
         <v>58</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>54</v>
+      <c r="C61" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F61" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="G61" s="4">
         <v>1</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I61" s="4">
-        <v>83</v>
-      </c>
-      <c r="J61" s="4">
-        <v>5</v>
-      </c>
-      <c r="K61" s="4">
-        <v>2</v>
-      </c>
-      <c r="L61" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>54</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="B62" s="3">
         <v>59</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>54</v>
+      <c r="C62" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F62" s="4">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G62" s="4">
         <v>1</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I62" s="4">
-        <v>376</v>
-      </c>
-      <c r="J62" s="4">
-        <v>5</v>
-      </c>
-      <c r="K62" s="4">
-        <v>2</v>
-      </c>
-      <c r="L62" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>54</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="B63" s="3">
         <v>60</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>54</v>
+      <c r="C63" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F63" s="4">
         <v>2</v>
@@ -3070,346 +4805,284 @@
         <v>1</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I63" s="4">
-        <v>1606</v>
-      </c>
-      <c r="J63" s="4">
-        <v>5</v>
-      </c>
-      <c r="K63" s="4">
-        <v>2</v>
-      </c>
-      <c r="L63" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>65</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="B64" s="3">
         <v>61</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>65</v>
+      <c r="C64" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F64" s="4">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="G64" s="4">
         <v>1</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I64" s="4">
-        <v>6</v>
-      </c>
-      <c r="J64" s="4">
-        <v>3</v>
-      </c>
-      <c r="K64" s="4">
-        <v>2</v>
-      </c>
-      <c r="L64" s="4">
-        <v>2</v>
-      </c>
-      <c r="M64" s="4">
-        <v>3</v>
-      </c>
-      <c r="N64" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>65</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="B65" s="3">
         <v>62</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>65</v>
+      <c r="C65" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F65" s="4">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="G65" s="4">
         <v>1</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I65" s="4">
-        <v>17</v>
-      </c>
-      <c r="J65" s="4">
-        <v>3</v>
-      </c>
-      <c r="K65" s="4">
-        <v>2</v>
-      </c>
-      <c r="L65" s="4">
-        <v>15</v>
-      </c>
-      <c r="M65" s="4">
-        <v>3</v>
-      </c>
-      <c r="N65" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>65</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="B66" s="3">
         <v>63</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>65</v>
+      <c r="C66" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F66" s="4">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="G66" s="4">
         <v>1</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I66" s="4">
-        <v>117</v>
-      </c>
-      <c r="J66" s="4">
-        <v>3</v>
-      </c>
-      <c r="K66" s="4">
-        <v>2</v>
-      </c>
-      <c r="L66" s="4">
-        <v>50</v>
-      </c>
-      <c r="M66" s="4">
-        <v>3</v>
-      </c>
-      <c r="N66" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>65</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="B67" s="3">
         <v>64</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>65</v>
+      <c r="C67" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F67" s="4">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="G67" s="4">
         <v>1</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I67" s="4">
-        <v>435</v>
-      </c>
-      <c r="J67" s="4">
-        <v>3</v>
-      </c>
-      <c r="K67" s="4">
-        <v>2</v>
-      </c>
-      <c r="L67" s="4">
-        <v>300</v>
-      </c>
-      <c r="M67" s="4">
-        <v>3</v>
-      </c>
-      <c r="N67" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>65</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="B68" s="3">
         <v>65</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>65</v>
+      <c r="C68" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F68" s="4">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="G68" s="4">
         <v>1</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I68" s="4">
-        <v>3007</v>
-      </c>
-      <c r="J68" s="4">
-        <v>3</v>
-      </c>
-      <c r="K68" s="4">
-        <v>2</v>
-      </c>
-      <c r="L68" s="4">
-        <v>1000</v>
-      </c>
-      <c r="M68" s="4">
-        <v>3</v>
-      </c>
-      <c r="N68" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>66</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="B69" s="3">
         <v>66</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>66</v>
+      <c r="C69" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F69" s="4">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G69" s="4">
         <v>1</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I69" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>66</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="B70" s="3">
         <v>67</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>66</v>
+      <c r="C70" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F70" s="4">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G70" s="4">
         <v>1</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I70" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>66</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B71" s="3">
         <v>68</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>66</v>
+      <c r="C71" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F71" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="G71" s="4">
         <v>1</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I71" s="4">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
-        <v>66</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="B72" s="3">
         <v>69</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>66</v>
+      <c r="C72" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F72" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="G72" s="4">
         <v>1</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I72" s="4">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
-        <v>66</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="B73" s="3">
         <v>70</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>66</v>
+      <c r="C73" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F73" s="4">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="G73" s="4">
         <v>1</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I73" s="4">
-        <v>2693</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>67</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="B74" s="3">
         <v>71</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>67</v>
+      <c r="C74" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F74" s="4">
         <v>2.5</v>
@@ -3418,37 +5091,24 @@
         <v>1</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I74" s="4">
-        <v>2</v>
-      </c>
-      <c r="J74" s="4">
-        <v>3</v>
-      </c>
-      <c r="K74" s="4">
-        <v>2</v>
-      </c>
-      <c r="L74" s="4">
-        <v>2</v>
-      </c>
-      <c r="M74" s="4">
-        <v>2</v>
-      </c>
-      <c r="N74" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>67</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="B75" s="3">
         <v>72</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>67</v>
+      <c r="C75" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F75" s="4">
         <v>2.5</v>
@@ -3457,332 +5117,901 @@
         <v>1</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I75" s="4">
-        <v>20</v>
-      </c>
-      <c r="J75" s="4">
-        <v>3</v>
-      </c>
-      <c r="K75" s="4">
-        <v>2</v>
-      </c>
-      <c r="L75" s="4">
-        <v>5</v>
-      </c>
-      <c r="M75" s="4">
-        <v>2</v>
-      </c>
-      <c r="N75" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>67</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="B76" s="3">
         <v>73</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>67</v>
+      <c r="C76" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F76" s="4">
+        <f>ROUND([1]副本数据!O254,1)</f>
         <v>2.5</v>
       </c>
       <c r="G76" s="4">
         <v>1</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I76" s="4">
-        <v>106</v>
-      </c>
-      <c r="J76" s="4">
-        <v>3</v>
-      </c>
-      <c r="K76" s="4">
-        <v>2</v>
-      </c>
-      <c r="L76" s="4">
-        <v>22</v>
-      </c>
-      <c r="M76" s="4">
-        <v>2</v>
-      </c>
-      <c r="N76" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>67</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="B77" s="3">
         <v>74</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>67</v>
+      <c r="C77" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F77" s="4">
-        <v>2.2000000000000002</v>
+        <f>ROUND([1]副本数据!O255,1)</f>
+        <v>3.3</v>
       </c>
       <c r="G77" s="4">
         <v>1</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I77" s="4">
-        <v>313</v>
-      </c>
-      <c r="J77" s="4">
-        <v>3</v>
-      </c>
-      <c r="K77" s="4">
-        <v>2</v>
-      </c>
-      <c r="L77" s="4">
-        <v>177</v>
-      </c>
-      <c r="M77" s="4">
-        <v>2</v>
-      </c>
-      <c r="N77" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>67</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="B78" s="3">
         <v>75</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>67</v>
+      <c r="C78" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F78" s="4">
-        <v>2.2000000000000002</v>
+        <f>ROUND([1]副本数据!O256,1)</f>
+        <v>3.3</v>
       </c>
       <c r="G78" s="4">
         <v>1</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I78" s="4">
-        <v>2204</v>
-      </c>
-      <c r="J78" s="4">
-        <v>3</v>
-      </c>
-      <c r="K78" s="4">
-        <v>2</v>
-      </c>
-      <c r="L78" s="4">
-        <v>500</v>
-      </c>
-      <c r="M78" s="4">
-        <v>2</v>
-      </c>
-      <c r="N78" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>68</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="B79" s="3">
         <v>76</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>68</v>
+      <c r="C79" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F79" s="4">
-        <v>5</v>
+        <f>ROUND([1]副本数据!O257,1)</f>
+        <v>3.3</v>
       </c>
       <c r="G79" s="4">
         <v>1</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I79" s="4">
-        <v>10</v>
-      </c>
-      <c r="J79" s="4">
-        <v>4</v>
-      </c>
-      <c r="K79" s="4">
-        <v>4</v>
-      </c>
-      <c r="L79" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>68</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="B80" s="3">
         <v>77</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>68</v>
+      <c r="C80" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F80" s="4">
-        <v>5</v>
+        <f>ROUND([1]副本数据!O258,1)</f>
+        <v>3.3</v>
       </c>
       <c r="G80" s="4">
         <v>1</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I80" s="4">
-        <v>49</v>
-      </c>
-      <c r="J80" s="4">
-        <v>4</v>
-      </c>
-      <c r="K80" s="4">
-        <v>22</v>
-      </c>
-      <c r="L80" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
-        <v>68</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="B81" s="3">
         <v>78</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>68</v>
+      <c r="C81" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F81" s="4">
-        <v>4.5</v>
+        <f>ROUND([1]副本数据!O259,1)</f>
+        <v>2.5</v>
       </c>
       <c r="G81" s="4">
         <v>1</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I81" s="4">
-        <v>233</v>
-      </c>
-      <c r="J81" s="4">
-        <v>4</v>
-      </c>
-      <c r="K81" s="4">
-        <v>90</v>
-      </c>
-      <c r="L81" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="B82" s="3">
         <v>79</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>68</v>
+      <c r="C82" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F82" s="4">
-        <v>4.5</v>
+        <f>ROUND([1]副本数据!O260,1)</f>
+        <v>2.5</v>
       </c>
       <c r="G82" s="4">
         <v>1</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I82" s="4">
-        <v>1014</v>
-      </c>
-      <c r="J82" s="4">
-        <v>4</v>
-      </c>
-      <c r="K82" s="4">
-        <v>600</v>
-      </c>
-      <c r="L82" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="B83" s="3">
         <v>80</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>68</v>
+      <c r="C83" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F83" s="4">
-        <v>4</v>
+        <f>ROUND([1]副本数据!O261,1)</f>
+        <v>3.3</v>
       </c>
       <c r="G83" s="4">
         <v>1</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I83" s="4">
-        <v>5615</v>
-      </c>
-      <c r="J83" s="4">
-        <v>4</v>
-      </c>
-      <c r="K83" s="4">
-        <v>1200</v>
-      </c>
-      <c r="L83" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>57</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="B84" s="3">
         <v>81</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>74</v>
+      <c r="C84" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F84" s="4">
-        <v>3.2</v>
+        <f>ROUND([1]副本数据!O262,1)</f>
+        <v>3.3</v>
       </c>
       <c r="G84" s="4">
         <v>1</v>
       </c>
       <c r="H84" s="4">
-        <f>IF(G84=1,2,1)</f>
         <v>2</v>
       </c>
       <c r="I84" s="4">
-        <v>1</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" s="3">
+        <v>82</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F85" s="4">
+        <f>ROUND([1]副本数据!O263,1)</f>
+        <v>3.3</v>
+      </c>
+      <c r="G85" s="4">
+        <v>1</v>
+      </c>
+      <c r="H85" s="4">
+        <v>2</v>
+      </c>
+      <c r="I85" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" s="3">
+        <v>83</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F86" s="4">
+        <f>ROUND([1]副本数据!O264,1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G86" s="4">
+        <v>1</v>
+      </c>
+      <c r="H86" s="4">
+        <v>2</v>
+      </c>
+      <c r="I86" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" s="3">
+        <v>84</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F87" s="4">
+        <f>ROUND([1]副本数据!O265,1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G87" s="4">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4">
+        <v>2</v>
+      </c>
+      <c r="I87" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="3">
+        <v>85</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F88" s="4">
+        <f>ROUND([1]副本数据!O266,1)</f>
+        <v>2.9</v>
+      </c>
+      <c r="G88" s="4">
+        <v>1</v>
+      </c>
+      <c r="H88" s="4">
+        <v>2</v>
+      </c>
+      <c r="I88" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B89" s="3">
+        <v>86</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F89" s="4">
+        <f>ROUND([1]副本数据!O267,1)</f>
+        <v>2.9</v>
+      </c>
+      <c r="G89" s="4">
+        <v>1</v>
+      </c>
+      <c r="H89" s="4">
+        <v>2</v>
+      </c>
+      <c r="I89" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" s="3">
+        <v>87</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F90" s="4">
+        <f>ROUND([1]副本数据!O268,1)</f>
+        <v>3.3</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4">
+        <v>2</v>
+      </c>
+      <c r="I90" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" s="3">
+        <v>88</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F91" s="4">
+        <f>ROUND([1]副本数据!O269,1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1</v>
+      </c>
+      <c r="H91" s="4">
+        <v>2</v>
+      </c>
+      <c r="I91" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="3">
+        <v>89</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F92" s="4">
+        <f>ROUND([1]副本数据!O270,1)</f>
+        <v>2.9</v>
+      </c>
+      <c r="G92" s="4">
+        <v>1</v>
+      </c>
+      <c r="H92" s="4">
+        <v>2</v>
+      </c>
+      <c r="I92" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" s="3">
+        <v>90</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F93" s="4">
+        <f>ROUND([1]副本数据!O271,1)</f>
+        <v>2.9</v>
+      </c>
+      <c r="G93" s="4">
+        <v>1</v>
+      </c>
+      <c r="H93" s="4">
+        <v>2</v>
+      </c>
+      <c r="I93" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="3">
+        <v>91</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F94" s="4">
+        <f>ROUND([1]副本数据!O272,1)</f>
+        <v>2.9</v>
+      </c>
+      <c r="G94" s="4">
+        <v>1</v>
+      </c>
+      <c r="H94" s="4">
+        <v>2</v>
+      </c>
+      <c r="I94" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B95" s="3">
+        <v>92</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F95" s="4">
+        <f>ROUND([1]副本数据!O273,1)</f>
+        <v>2.9</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4">
+        <v>2</v>
+      </c>
+      <c r="I95" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" s="3">
+        <v>93</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F96" s="4">
+        <f>ROUND([1]副本数据!O274,1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G96" s="4">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4">
+        <v>2</v>
+      </c>
+      <c r="I96" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97" s="3">
+        <v>94</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F97" s="4">
+        <f>ROUND([1]副本数据!O275,1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G97" s="4">
+        <v>1</v>
+      </c>
+      <c r="H97" s="4">
+        <v>2</v>
+      </c>
+      <c r="I97" s="4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" s="3">
+        <v>95</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F98" s="4">
+        <f>ROUND([1]副本数据!O276,1)</f>
+        <v>2.9</v>
+      </c>
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4">
+        <v>2</v>
+      </c>
+      <c r="I98" s="4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B99" s="3">
+        <v>96</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F99" s="4">
+        <f>ROUND([1]副本数据!O277,1)</f>
+        <v>2.9</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1</v>
+      </c>
+      <c r="H99" s="4">
+        <v>2</v>
+      </c>
+      <c r="I99" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B100" s="3">
+        <v>97</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F100" s="4">
+        <f>ROUND([1]副本数据!O278,1)</f>
+        <v>2.9</v>
+      </c>
+      <c r="G100" s="4">
+        <v>1</v>
+      </c>
+      <c r="H100" s="4">
+        <v>2</v>
+      </c>
+      <c r="I100" s="4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B101" s="3">
+        <v>98</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F101" s="4">
+        <f>ROUND([1]副本数据!O279,1)</f>
+        <v>3.3</v>
+      </c>
+      <c r="G101" s="4">
+        <v>1</v>
+      </c>
+      <c r="H101" s="4">
+        <v>2</v>
+      </c>
+      <c r="I101" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" s="3">
+        <v>99</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F102" s="4">
+        <f>ROUND([1]副本数据!O280,1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G102" s="4">
+        <v>1</v>
+      </c>
+      <c r="H102" s="4">
+        <v>2</v>
+      </c>
+      <c r="I102" s="4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B103" s="3">
+        <v>100</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F103" s="4">
+        <f>ROUND([1]副本数据!O281,1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G103" s="4">
+        <v>1</v>
+      </c>
+      <c r="H103" s="4">
+        <v>2</v>
+      </c>
+      <c r="I103" s="4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104" s="3">
+        <v>101</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F104" s="4">
+        <f>ROUND([1]副本数据!O282,1)</f>
+        <v>2.9</v>
+      </c>
+      <c r="G104" s="4">
+        <v>1</v>
+      </c>
+      <c r="H104" s="4">
+        <v>2</v>
+      </c>
+      <c r="I104" s="4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B105" s="3">
+        <v>102</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F105" s="4">
+        <f>ROUND([1]副本数据!O283,1)</f>
+        <v>2.9</v>
+      </c>
+      <c r="G105" s="4">
+        <v>1</v>
+      </c>
+      <c r="H105" s="4">
+        <v>2</v>
+      </c>
+      <c r="I105" s="4">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B106" s="3">
+        <v>103</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F106" s="4">
+        <f>ROUND([1]副本数据!O284,1)</f>
+        <v>2.9</v>
+      </c>
+      <c r="G106" s="4">
+        <v>1</v>
+      </c>
+      <c r="H106" s="4">
+        <v>2</v>
+      </c>
+      <c r="I106" s="4">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" s="3">
+        <v>104</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F107" s="4">
+        <f>ROUND([1]副本数据!O285,1)</f>
+        <v>2.9</v>
+      </c>
+      <c r="G107" s="4">
+        <v>1</v>
+      </c>
+      <c r="H107" s="4">
+        <v>2</v>
+      </c>
+      <c r="I107" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B108" s="3">
+        <v>105</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F108" s="4">
+        <f>ROUND([1]副本数据!O286,1)</f>
+        <v>3.3</v>
+      </c>
+      <c r="G108" s="4">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4">
+        <v>2</v>
+      </c>
+      <c r="I108" s="4">
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/技能配置表.xlsx
+++ b/ExcelConfig/技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="-210" windowWidth="18690" windowHeight="9105" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="6390" yWindow="-165" windowWidth="18690" windowHeight="9075" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -2755,7 +2755,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomRight" activeCell="I76" sqref="I76:I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3976,7 +3976,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -4002,7 +4002,7 @@
         <v>2</v>
       </c>
       <c r="I32" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -4028,7 +4028,7 @@
         <v>2</v>
       </c>
       <c r="I33" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -4054,7 +4054,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -4080,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -4106,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="I36" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -4132,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="I37" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -4158,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -4184,7 +4184,7 @@
         <v>2</v>
       </c>
       <c r="I39" s="4">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -4210,7 +4210,7 @@
         <v>2</v>
       </c>
       <c r="I40" s="4">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -4236,7 +4236,7 @@
         <v>2</v>
       </c>
       <c r="I41" s="4">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -4262,7 +4262,7 @@
         <v>2</v>
       </c>
       <c r="I42" s="4">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -4288,7 +4288,7 @@
         <v>2</v>
       </c>
       <c r="I43" s="4">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -4314,7 +4314,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="4">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -4340,7 +4340,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="4">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -4366,7 +4366,7 @@
         <v>2</v>
       </c>
       <c r="I46" s="4">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -4392,7 +4392,7 @@
         <v>2</v>
       </c>
       <c r="I47" s="4">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -4418,7 +4418,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="4">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -4444,7 +4444,7 @@
         <v>2</v>
       </c>
       <c r="I49" s="4">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -4470,7 +4470,7 @@
         <v>2</v>
       </c>
       <c r="I50" s="4">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -4496,7 +4496,7 @@
         <v>2</v>
       </c>
       <c r="I51" s="4">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -4522,7 +4522,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="4">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -4548,7 +4548,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="4">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -4574,7 +4574,7 @@
         <v>2</v>
       </c>
       <c r="I54" s="4">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -4600,7 +4600,7 @@
         <v>2</v>
       </c>
       <c r="I55" s="4">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -4626,7 +4626,7 @@
         <v>2</v>
       </c>
       <c r="I56" s="4">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -4652,7 +4652,7 @@
         <v>2</v>
       </c>
       <c r="I57" s="4">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -4678,7 +4678,7 @@
         <v>2</v>
       </c>
       <c r="I58" s="4">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -4704,7 +4704,7 @@
         <v>2</v>
       </c>
       <c r="I59" s="4">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -4730,7 +4730,7 @@
         <v>2</v>
       </c>
       <c r="I60" s="4">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -4756,7 +4756,7 @@
         <v>2</v>
       </c>
       <c r="I61" s="4">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -4834,7 +4834,7 @@
         <v>2</v>
       </c>
       <c r="I64" s="4">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -5147,7 +5147,7 @@
         <v>2</v>
       </c>
       <c r="I76" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -5174,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="I77" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -5201,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="I78" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -5228,7 +5228,7 @@
         <v>2</v>
       </c>
       <c r="I79" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -5255,7 +5255,7 @@
         <v>2</v>
       </c>
       <c r="I80" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -5282,7 +5282,7 @@
         <v>2</v>
       </c>
       <c r="I81" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -5309,7 +5309,7 @@
         <v>2</v>
       </c>
       <c r="I82" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -5336,7 +5336,7 @@
         <v>2</v>
       </c>
       <c r="I83" s="4">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -5363,7 +5363,7 @@
         <v>2</v>
       </c>
       <c r="I84" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -5390,7 +5390,7 @@
         <v>2</v>
       </c>
       <c r="I85" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -5417,7 +5417,7 @@
         <v>2</v>
       </c>
       <c r="I86" s="4">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -5444,7 +5444,7 @@
         <v>2</v>
       </c>
       <c r="I87" s="4">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -5471,7 +5471,7 @@
         <v>2</v>
       </c>
       <c r="I88" s="4">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -5498,7 +5498,7 @@
         <v>2</v>
       </c>
       <c r="I89" s="4">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -5525,7 +5525,7 @@
         <v>2</v>
       </c>
       <c r="I90" s="4">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -5552,7 +5552,7 @@
         <v>2</v>
       </c>
       <c r="I91" s="4">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -5579,7 +5579,7 @@
         <v>2</v>
       </c>
       <c r="I92" s="4">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -5606,7 +5606,7 @@
         <v>2</v>
       </c>
       <c r="I93" s="4">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -5633,7 +5633,7 @@
         <v>2</v>
       </c>
       <c r="I94" s="4">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -5660,7 +5660,7 @@
         <v>2</v>
       </c>
       <c r="I95" s="4">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -5714,7 +5714,7 @@
         <v>2</v>
       </c>
       <c r="I97" s="4">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -5741,7 +5741,7 @@
         <v>2</v>
       </c>
       <c r="I98" s="4">
-        <v>161</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -5768,7 +5768,7 @@
         <v>2</v>
       </c>
       <c r="I99" s="4">
-        <v>193</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -5795,7 +5795,7 @@
         <v>2</v>
       </c>
       <c r="I100" s="4">
-        <v>225</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -5822,7 +5822,7 @@
         <v>2</v>
       </c>
       <c r="I101" s="4">
-        <v>300</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
